--- a/file/personal/人生规划执行表.xlsx
+++ b/file/personal/人生规划执行表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27400" windowHeight="14700" activeTab="2"/>
+    <workbookView windowHeight="16440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="好习惯" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
   <si>
     <t>分类</t>
   </si>
@@ -75,6 +75,18 @@
     <t>泰山崩于前而面不改</t>
   </si>
   <si>
+    <t>理清处理问题</t>
+  </si>
+  <si>
+    <t>不要掺杂任何个人感情色彩</t>
+  </si>
+  <si>
+    <t>要爱笑</t>
+  </si>
+  <si>
+    <t>一个微笑有时候能解决不少潜在问题</t>
+  </si>
+  <si>
     <t>做事</t>
   </si>
   <si>
@@ -129,13 +141,34 @@
     <t>关注生活/家庭</t>
   </si>
   <si>
+    <t>生活</t>
+  </si>
+  <si>
+    <t>全家旅游一次</t>
+  </si>
+  <si>
+    <t>去成都旅游/重启/海南全家旅游一次</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
     <t>关注事业</t>
   </si>
   <si>
+    <t>主业</t>
+  </si>
+  <si>
+    <t>一份长期稳定的工作</t>
+  </si>
+  <si>
+    <t>不用担心失业，工作强度不是太大（事业编/国企）</t>
+  </si>
+  <si>
     <t>副业</t>
   </si>
   <si>
-    <t>找到自己合适的副业</t>
+    <t>利用技术打造自己的第二成长曲线</t>
   </si>
   <si>
     <t>自己擅长、喜欢、能持续盈利、不可预期，比如做投资人</t>
@@ -152,6 +185,9 @@
   </si>
   <si>
     <t>年份</t>
+  </si>
+  <si>
+    <t>优先级</t>
   </si>
   <si>
     <t>反思</t>
@@ -216,16 +252,34 @@
     <t>同上</t>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
-    <t>成为大健康产品专家</t>
-  </si>
-  <si>
-    <t>成为大健康业务负责人</t>
-  </si>
-  <si>
-    <t>成为公务员</t>
+    <t>没想好是否要考公务员</t>
+  </si>
+  <si>
+    <t>高估了自己，低估了市场</t>
+  </si>
+  <si>
+    <t>参加上海事业编考试</t>
+  </si>
+  <si>
+    <t>希望能成功考进</t>
+  </si>
+  <si>
+    <t>重要不紧急</t>
+  </si>
+  <si>
+    <t>进入理想企业</t>
+  </si>
+  <si>
+    <t>央企/国企/优秀私企 （养老、医疗、金融、保险等）目的是闲和稳定</t>
+  </si>
+  <si>
+    <t>重要紧急</t>
+  </si>
+  <si>
+    <t>第二成长曲线</t>
+  </si>
+  <si>
+    <t>能够完成单机pc游戏的逆向开发/微信游戏开发流程掌握</t>
   </si>
 </sst>
 </file>
@@ -233,10 +287,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -259,13 +313,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -274,14 +321,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,31 +335,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,7 +350,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,8 +372,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,25 +433,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,23 +462,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,7 +502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,133 +571,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,50 +749,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="35">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -830,9 +890,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -894,6 +952,21 @@
       </top>
       <bottom style="thin">
         <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -970,6 +1043,32 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top style="thin">
+        <color indexed="17"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="17"/>
+      </left>
+      <right style="thin">
+        <color indexed="17"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="17"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="13"/>
       </left>
       <right style="thin">
@@ -1062,8 +1161,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,39 +1226,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1161,152 +1260,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="33" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1355,7 +1454,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1367,9 +1466,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1379,79 +1475,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="10" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="10" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2663,7 +2780,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="2"/>
@@ -2675,186 +2792,194 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.55" customHeight="1" spans="1:3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="13.55" customHeight="1" spans="1:3">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="41"/>
+      <c r="C2" s="47"/>
     </row>
     <row r="3" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="43" t="s">
+      <c r="A3" s="48"/>
+      <c r="B3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="44"/>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A4" s="42"/>
-      <c r="B4" s="43" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="44"/>
+      <c r="C4" s="50"/>
     </row>
     <row r="5" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="43" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="43" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="44" t="s">
+      <c r="C6" s="50" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="44"/>
+      <c r="C7" s="50"/>
     </row>
     <row r="8" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="43" t="s">
+      <c r="A8" s="52"/>
+      <c r="B8" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="44"/>
+      <c r="C8" s="50"/>
     </row>
     <row r="9" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="47" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="50" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="43" t="s">
+      <c r="B10" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="48" t="s">
+      <c r="C10" s="54" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="44"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A13" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="44"/>
+      <c r="A13" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="50"/>
     </row>
     <row r="14" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="44"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="50"/>
     </row>
     <row r="15" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="44"/>
+      <c r="A15" s="52"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="50"/>
     </row>
     <row r="16" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A16" s="46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="44"/>
+      <c r="A16" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="50"/>
     </row>
     <row r="17" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="44" t="s">
-        <v>24</v>
+      <c r="A17" s="52"/>
+      <c r="B17" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="44" t="s">
-        <v>26</v>
+      <c r="A18" s="52"/>
+      <c r="B18" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="50" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>28</v>
+      <c r="A19" s="52"/>
+      <c r="B19" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="44" t="s">
-        <v>30</v>
+      <c r="A20" s="52"/>
+      <c r="B20" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="44"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="50"/>
     </row>
     <row r="22" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="44"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="50"/>
     </row>
     <row r="23" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="44"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="50"/>
     </row>
     <row r="24" ht="13.35" customHeight="1" spans="1:3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="44"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2878,7 +3003,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
@@ -2887,304 +3012,322 @@
     <col min="2" max="2" width="22.0480769230769" style="1" customWidth="1"/>
     <col min="3" max="3" width="37.2980769230769" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.8461538461538" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.68269230769231" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5865384615385" style="1" customWidth="1"/>
     <col min="6" max="16384" width="6" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1" spans="1:5">
-      <c r="A1" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
+      <c r="A1" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" ht="14" customHeight="1" spans="1:5">
       <c r="A2" s="11" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" ht="14" customHeight="1" spans="1:5">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
     </row>
     <row r="18" ht="14" customHeight="1" spans="1:5">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
     </row>
     <row r="19" ht="14" customHeight="1" spans="1:5">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
     </row>
     <row r="20" ht="14" customHeight="1" spans="1:5">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
     </row>
     <row r="21" ht="14" customHeight="1" spans="1:5">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
     </row>
     <row r="22" ht="14" customHeight="1" spans="1:5">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
     </row>
     <row r="23" ht="18" customHeight="1" spans="1:5">
-      <c r="A23" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
+      <c r="A23" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
     </row>
     <row r="24" ht="14" customHeight="1" spans="1:5">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
+      <c r="A24" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="36"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:5">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
     </row>
     <row r="26" ht="14" customHeight="1" spans="1:5">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
     </row>
     <row r="27" ht="14" customHeight="1" spans="1:5">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
     </row>
     <row r="28" ht="14" customHeight="1" spans="1:5">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
     </row>
     <row r="29" ht="14" customHeight="1" spans="1:5">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30" ht="14" customHeight="1" spans="1:5">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31" ht="14" customHeight="1" spans="1:5">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32" ht="18" customHeight="1" spans="1:5">
-      <c r="A32" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="A32" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
     </row>
     <row r="33" ht="14" customHeight="1" spans="1:5">
-      <c r="A33" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="A33" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" ht="14" customHeight="1" spans="1:5">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="A34" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="42"/>
     </row>
     <row r="35" ht="14" customHeight="1" spans="1:5">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" ht="14" customHeight="1" spans="1:5">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
     </row>
     <row r="37" ht="14" customHeight="1" spans="1:5">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38" ht="14" customHeight="1" spans="1:5">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39" ht="14" customHeight="1" spans="1:5">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3209,32 +3352,34 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.64423076923077" defaultRowHeight="13" customHeight="1" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="16.3557692307692" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.8365384615385" style="1" customWidth="1"/>
     <col min="3" max="3" width="67.3076923076923" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3557692307692" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6634615384615" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.3557692307692" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6634615384615" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3557692307692" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.65" customHeight="1" spans="1:5">
+    <row r="1" ht="13.65" customHeight="1" spans="1:6">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="14" customHeight="1" spans="1:5">
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" ht="14" customHeight="1" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B2" s="4">
         <v>20210101</v>
@@ -3242,10 +3387,11 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="14" customHeight="1" spans="1:5">
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" ht="14" customHeight="1" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B3" s="7">
         <v>20260101</v>
@@ -3253,253 +3399,291 @@
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" ht="80.8" customHeight="1" spans="1:5">
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" ht="80.8" customHeight="1" spans="1:6">
       <c r="A4" s="9" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="26"/>
-    </row>
-    <row r="5" ht="14" customHeight="1" spans="1:5">
+      <c r="E4" s="10"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" ht="14" customHeight="1" spans="1:6">
       <c r="A5" s="11" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" ht="13.65" customHeight="1" spans="1:5">
+        <v>56</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" ht="13.65" customHeight="1" spans="1:6">
       <c r="A6" s="13">
         <v>2021</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" ht="13.35" customHeight="1" spans="1:5">
+        <v>59</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" ht="13.35" customHeight="1" spans="1:6">
       <c r="A7" s="17"/>
       <c r="B7" s="18" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" ht="13.35" customHeight="1" spans="1:5">
+        <v>63</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" ht="13.35" customHeight="1" spans="1:6">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" ht="13.35" customHeight="1" spans="1:5">
+        <v>66</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" ht="13.35" customHeight="1" spans="1:6">
       <c r="A9" s="17"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" ht="13.35" customHeight="1" spans="1:5">
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" ht="13.35" customHeight="1" spans="1:6">
       <c r="A10" s="17"/>
       <c r="B10" s="17"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A11" s="23">
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A11" s="22">
         <v>2022</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" ht="13.35" customHeight="1" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" ht="13.35" customHeight="1" spans="1:6">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="29"/>
-    </row>
-    <row r="13" ht="13.35" customHeight="1" spans="1:5">
+        <v>71</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="30"/>
+    </row>
+    <row r="13" ht="13.35" customHeight="1" spans="1:6">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" ht="13.35" customHeight="1" spans="1:5">
+      <c r="F13" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" ht="13.35" customHeight="1" spans="1:6">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" ht="13.35" customHeight="1" spans="1:5">
+        <v>75</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" ht="13.35" customHeight="1" spans="1:6">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A16" s="23">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A16" s="22">
         <v>2023</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" ht="13.35" customHeight="1" spans="1:5">
+      <c r="F16" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" ht="13.35" customHeight="1" spans="1:6">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" ht="13.35" customHeight="1" spans="1:5">
+        <v>68</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" ht="13.35" customHeight="1" spans="1:6">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="17"/>
-    </row>
-    <row r="19" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A19" s="23">
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A19" s="22">
         <v>2024</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="17"/>
+        <v>79</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-    </row>
-    <row r="20" ht="13.35" customHeight="1" spans="1:5">
+      <c r="E19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" ht="13.35" customHeight="1" spans="1:6">
       <c r="A20" s="17"/>
       <c r="B20" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="17"/>
+        <v>82</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>83</v>
+      </c>
       <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-    </row>
-    <row r="21" ht="13.35" customHeight="1" spans="1:5">
+      <c r="E20" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" ht="13.35" customHeight="1" spans="1:6">
       <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>86</v>
+      </c>
       <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-    </row>
-    <row r="22" ht="13.35" customHeight="1" spans="1:5">
-      <c r="A22" s="23">
+      <c r="E21" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" ht="13.35" customHeight="1" spans="1:6">
+      <c r="A22" s="22">
         <v>2025</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>67</v>
-      </c>
+      <c r="B22" s="18"/>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
-    </row>
-    <row r="23" ht="13.35" customHeight="1" spans="1:5">
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" ht="13.35" customHeight="1" spans="1:6">
       <c r="A23" s="17"/>
-      <c r="B23" s="18" t="s">
-        <v>68</v>
-      </c>
+      <c r="B23" s="18"/>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
       <c r="E23" s="17"/>
-    </row>
-    <row r="24" ht="13.35" customHeight="1" spans="1:5">
+      <c r="F23" s="17"/>
+    </row>
+    <row r="24" ht="13.35" customHeight="1" spans="1:6">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
-    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
